--- a/LLM filtering results.xlsx
+++ b/LLM filtering results.xlsx
@@ -7,22 +7,48 @@
     <workbookView windowWidth="24510" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>LLM Filtering module results (30 trails for each #subtasks)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>#Subtasks</t>
   </si>
   <si>
     <t>GPT-4o</t>
+  </si>
+  <si>
+    <t>GPT-3.5</t>
+  </si>
+  <si>
+    <t>Original number of nodes in the graph</t>
+  </si>
+  <si>
+    <t>Number of groundtruth objects</t>
+  </si>
+  <si>
+    <t>Actual number of filtered objects from the agent</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>ignore "wall",
+                "floor"</t>
+  </si>
+  <si>
+    <t>also ignore the wall, floor things in the orginal numebr of nodes</t>
+  </si>
+  <si>
+    <t>LLM Filtering module results (failure rate caculated by 30 trails for each #subtasks)</t>
   </si>
   <si>
     <t>GPT3.5</t>
@@ -40,6 +66,15 @@
     <t>Missing grountruth</t>
   </si>
   <si>
+    <t>indirect object (not include bookshelf)</t>
+  </si>
+  <si>
+    <t>check how many objects can be inside indirect objects, how often they happen</t>
+  </si>
+  <si>
+    <t>print the list of objects that is inside another object</t>
+  </si>
+  <si>
     <t xml:space="preserve">notes: format error data saved in https://github.com/rperezdattari/LLM-filter-planning/commit/3c288602e49eccc2569ffe474e25bea21fdb97ed </t>
   </si>
   <si>
@@ -54,16 +89,46 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -77,21 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -100,32 +150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,28 +167,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,7 +181,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,15 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +232,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -222,19 +272,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,163 +428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,21 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,32 +490,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,13 +534,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,153 +568,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -682,8 +735,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="38" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="24" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1004,19 +1090,730 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD15"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85925925925926" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="9.72592592592593" customWidth="1"/>
+    <col min="7" max="7" width="10.2296296296296" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" ht="49" customHeight="1" spans="1:13">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4">
+        <v>4.6667</v>
+      </c>
+      <c r="E4">
+        <v>3.6899</v>
+      </c>
+      <c r="F4">
+        <v>11.8889</v>
+      </c>
+      <c r="G4">
+        <v>12.2233</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4">
+        <v>4.7727</v>
+      </c>
+      <c r="K4">
+        <v>3.9633</v>
+      </c>
+      <c r="L4">
+        <v>8.0909</v>
+      </c>
+      <c r="M4">
+        <v>4.4391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5">
+        <v>8.8929</v>
+      </c>
+      <c r="E5">
+        <v>5.0577</v>
+      </c>
+      <c r="F5">
+        <v>12.1071</v>
+      </c>
+      <c r="G5">
+        <v>5.4047</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5">
+        <v>7.9091</v>
+      </c>
+      <c r="K5">
+        <v>4.1851</v>
+      </c>
+      <c r="L5">
+        <v>9.9545</v>
+      </c>
+      <c r="M5">
+        <v>4.9903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6">
+        <v>11.8571</v>
+      </c>
+      <c r="E6">
+        <v>6.6762</v>
+      </c>
+      <c r="F6">
+        <v>16.8214</v>
+      </c>
+      <c r="G6">
+        <v>8.3135</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6">
+        <v>11.0952</v>
+      </c>
+      <c r="K6">
+        <v>7.1548</v>
+      </c>
+      <c r="L6">
+        <v>14.5714</v>
+      </c>
+      <c r="M6">
+        <v>8.376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8.4951</v>
+      </c>
+      <c r="F7" s="6">
+        <v>18.48</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9.1929</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="6">
+        <v>15.25</v>
+      </c>
+      <c r="K7" s="6">
+        <v>9.9833</v>
+      </c>
+      <c r="L7" s="6">
+        <v>17.125</v>
+      </c>
+      <c r="M7" s="6">
+        <v>9.8107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="6">
+        <v>19.8333</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.7272</v>
+      </c>
+      <c r="F8" s="6">
+        <v>22.4167</v>
+      </c>
+      <c r="G8" s="6">
+        <v>8.1503</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13">
+        <v>18.385</v>
+      </c>
+      <c r="K8" s="13">
+        <v>8.9026</v>
+      </c>
+      <c r="L8" s="17">
+        <v>20.308</v>
+      </c>
+      <c r="M8" s="17">
+        <v>8.994</v>
+      </c>
+    </row>
+    <row r="10" ht="57" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5"/>
+      <c r="B15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="14">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14">
+        <v>278.6428571</v>
+      </c>
+      <c r="C17" s="14">
+        <v>45.56079141</v>
+      </c>
+      <c r="D17" s="14">
+        <v>4.214</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3.662</v>
+      </c>
+      <c r="F17" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="G17" s="14">
+        <v>8.026</v>
+      </c>
+      <c r="H17" s="14">
+        <v>273.1666667</v>
+      </c>
+      <c r="I17" s="14">
+        <v>44.92586486</v>
+      </c>
+      <c r="J17" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="K17" s="14">
+        <v>4.21</v>
+      </c>
+      <c r="L17" s="14">
+        <v>6.667</v>
+      </c>
+      <c r="M17" s="14">
+        <v>5.365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="14">
+        <v>2</v>
+      </c>
+      <c r="B18" s="14">
+        <v>273.1666667</v>
+      </c>
+      <c r="C18" s="14">
+        <v>44.26025969</v>
+      </c>
+      <c r="D18" s="14">
+        <v>7.889</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4.364</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10</v>
+      </c>
+      <c r="G18" s="14">
+        <v>5.053</v>
+      </c>
+      <c r="H18" s="14">
+        <v>271.1333333</v>
+      </c>
+      <c r="I18" s="14">
+        <v>42.13730391</v>
+      </c>
+      <c r="J18" s="14">
+        <v>8</v>
+      </c>
+      <c r="K18" s="14">
+        <v>4.706</v>
+      </c>
+      <c r="L18" s="14">
+        <v>9.2</v>
+      </c>
+      <c r="M18" s="14">
+        <v>5.809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="14">
+        <v>3</v>
+      </c>
+      <c r="B19" s="14">
+        <v>276.8947368</v>
+      </c>
+      <c r="C19" s="14">
+        <v>46.57120562</v>
+      </c>
+      <c r="D19" s="14">
+        <v>10.263</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4.306</v>
+      </c>
+      <c r="F19" s="14">
+        <v>12.526</v>
+      </c>
+      <c r="G19" s="14">
+        <v>4.338</v>
+      </c>
+      <c r="H19" s="14">
+        <v>270.5</v>
+      </c>
+      <c r="I19" s="14">
+        <v>50.44684941</v>
+      </c>
+      <c r="J19" s="14">
+        <v>9.429</v>
+      </c>
+      <c r="K19" s="14">
+        <v>3.877</v>
+      </c>
+      <c r="L19" s="14">
+        <v>12</v>
+      </c>
+      <c r="M19" s="14">
+        <v>4.977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="14">
+        <v>4</v>
+      </c>
+      <c r="B20" s="14">
+        <v>282</v>
+      </c>
+      <c r="C20" s="14">
+        <v>39.59324437</v>
+      </c>
+      <c r="D20" s="14">
+        <v>17.176</v>
+      </c>
+      <c r="E20" s="14">
+        <v>7.393</v>
+      </c>
+      <c r="F20" s="14">
+        <v>19</v>
+      </c>
+      <c r="G20" s="14">
+        <v>7.921</v>
+      </c>
+      <c r="H20" s="14">
+        <v>273.8333333</v>
+      </c>
+      <c r="I20" s="14">
+        <v>45.65649079</v>
+      </c>
+      <c r="J20" s="14">
+        <v>15.833</v>
+      </c>
+      <c r="K20" s="14">
+        <v>8.632</v>
+      </c>
+      <c r="L20" s="14">
+        <v>17.167</v>
+      </c>
+      <c r="M20" s="14">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="14">
+        <v>5</v>
+      </c>
+      <c r="B21" s="14">
+        <v>275.7916667</v>
+      </c>
+      <c r="C21" s="14">
+        <v>46.70814021</v>
+      </c>
+      <c r="D21" s="14">
+        <v>19.833</v>
+      </c>
+      <c r="E21" s="14">
+        <v>7.727</v>
+      </c>
+      <c r="F21" s="14">
+        <v>21.708</v>
+      </c>
+      <c r="G21" s="14">
+        <v>8.062</v>
+      </c>
+      <c r="H21" s="14">
+        <v>265.8461538</v>
+      </c>
+      <c r="I21" s="14">
+        <v>40.15770195</v>
+      </c>
+      <c r="J21" s="14">
+        <v>18.385</v>
+      </c>
+      <c r="K21" s="14">
+        <v>8.903</v>
+      </c>
+      <c r="L21" s="14">
+        <v>19.769</v>
+      </c>
+      <c r="M21" s="14">
+        <v>9.103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85925925925926" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.6740740740741" customWidth="1"/>
     <col min="2" max="2" width="20.7259259259259" customWidth="1"/>
-    <col min="3" max="4" width="18.9481481481481" customWidth="1"/>
+    <col min="3" max="3" width="18.9481481481481" customWidth="1"/>
+    <col min="4" max="4" width="20.5037037037037" customWidth="1"/>
     <col min="5" max="5" width="17.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="11.6148148148148" customWidth="1"/>
+    <col min="6" max="6" width="14.9703703703704" customWidth="1"/>
     <col min="7" max="7" width="15.4518518518519" customWidth="1"/>
     <col min="8" max="8" width="20.1185185185185" customWidth="1"/>
     <col min="9" max="9" width="12.9481481481481" customWidth="1"/>
@@ -1024,76 +1821,76 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>0.167</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>0.133</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>0.1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="9">
         <v>0.367</v>
       </c>
       <c r="I4">
@@ -1104,25 +1901,25 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>0.233</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>0.033</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>0.267</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>0.067</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="9">
         <v>0.533</v>
       </c>
       <c r="I5">
@@ -1133,25 +1930,25 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>0.267</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>0.033</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>0.333</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>0.067</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="9">
         <v>0.567</v>
       </c>
       <c r="I6">
@@ -1162,25 +1959,25 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>0.133</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>0.033</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>0.5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>0.167</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>0.067</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="8">
         <v>0.067</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="9">
         <v>0.767</v>
       </c>
       <c r="I7">
@@ -1191,53 +1988,139 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>0.2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>0.767</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>0.2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>0.067</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="8">
         <v>0.033</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="9">
         <v>0.9</v>
       </c>
       <c r="I8">
         <v>0.567</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="25" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="19" customHeight="1" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" ht="55" customHeight="1" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:8">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="35" customHeight="1" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="19" customHeight="1" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
